--- a/data/trans_dic/P6903-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P6903-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,08%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,55%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,82%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,9%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,8%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>45,16%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>22,17%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>25,21; 57,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,68</t>
+          <t>29,34; 56,78</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>5,14; 40,17</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>19,32; 59,38</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>32,2; 65,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>11,51; 48,78</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>27,98; 52,26</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 2,11</t>
+          <t>34,7; 55,54</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 3,24</t>
+          <t>11,19; 39,7</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,37%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,22%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,58%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>40,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>29,79%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,54%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,44%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>44,88%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,94%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,0%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,58%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,95</t>
+          <t>20,44; 43,85</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>20,55; 44,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,42</t>
+          <t>30,66; 52,55</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>22,58; 59,18</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,61</t>
+          <t>14,76; 47,21</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 5,96</t>
+          <t>9,76; 41,12</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 4,55</t>
+          <t>44,47; 76,19</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>32,05; 57,58</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>21,16; 40,11</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>20,14; 38,94</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 1,6</t>
+          <t>39,79; 58,41</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 2,08</t>
+          <t>31,75; 53,77</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,44%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,63%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,93%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,63%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,61%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>14,42%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,28%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,68%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>20,1%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,15%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,8%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>18,34; 52,31</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>3,65; 33,67</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>8,7; 43,73</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,54</t>
+          <t>3,89; 21,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>4,47; 32,9</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 10,53</t>
+          <t>10,49; 52,98</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>0,0; 42,01</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 2,7</t>
+          <t>18,23; 39,44</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>16,01; 40,93</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>10,89; 33,82</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 5,3</t>
+          <t>8,09; 35,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 1,55</t>
+          <t>12,56; 26,6</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,81%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,57%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>51,1%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>13,5%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>48,73%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,7%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,04%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,17%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,05%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,36</t>
+          <t>10,7; 31,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,36</t>
+          <t>18,77; 39,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,15</t>
+          <t>31,88; 68,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 5,78</t>
+          <t>30,56; 71,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 7,93</t>
+          <t>4,16; 36,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,42</t>
+          <t>38,11; 64,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>32,17; 66,6</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,9</t>
+          <t>29,54; 68,33</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 2,39</t>
+          <t>10,5; 29,17</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,41</t>
+          <t>29,99; 46,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 3,19</t>
+          <t>35,28; 60,81</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 1,96</t>
+          <t>34,77; 64,39</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,62%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,25%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,22%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,0%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,04%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>18,34%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,84%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>14,43; 52,15</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>0,0; 27,82</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 13,49</t>
+          <t>26,24; 79,33</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,06</t>
+          <t>4,09; 32,64</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>0,0; 71,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 17,08</t>
+          <t>8,42; 68,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 26,42</t>
+          <t>16,08; 85,47</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,57</t>
+          <t>12,49; 50,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>16,39; 49,48</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>6,83; 36,2</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 9,49</t>
+          <t>28,13; 75,78</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>10,94; 34,92</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,28%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,82%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,34%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,34%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,35%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>47,95%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>27,47%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,47%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,91%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>26,4%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,66</t>
+          <t>26,75; 57,82</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,44</t>
+          <t>7,17; 32,81</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 8,27</t>
+          <t>22,26; 64,06</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 4,78</t>
+          <t>12,51; 42,12</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 12,61</t>
+          <t>0,0; 37,38</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 11,83</t>
+          <t>6,67; 58,11</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 23,25</t>
+          <t>14,99; 88,54</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,75</t>
+          <t>16,47; 42,33</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,48</t>
+          <t>21,74; 47,24</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>10,4; 32,67</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 6,36</t>
+          <t>24,57; 60,52</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 2,13</t>
+          <t>18,11; 36,91</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,13%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>15,09%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,68%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>21,54%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,46%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>25,69%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,47%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,9%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>19,97%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,64%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,25</t>
+          <t>19,13; 38,98</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>7,32; 28,0</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>21,38; 43,0</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>12,38; 32,35</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>18,81; 44,43</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 4,25</t>
+          <t>14,46; 38,72</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 3,61</t>
+          <t>19,56; 45,01</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,86</t>
+          <t>30,5; 49,88</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,5</t>
+          <t>20,88; 37,23</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,98</t>
+          <t>12,56; 28,86</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,57</t>
+          <t>23,84; 40,14</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 1,12</t>
+          <t>23,33; 38,33</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,11%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>32,43%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,19%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>70,66%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>49,33%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,21%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>16,57%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>60,13%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,2%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>33,53%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,63%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>65,39%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,73</t>
+          <t>24,56; 42,62</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 4,34</t>
+          <t>19,85; 47,2</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 5,03</t>
+          <t>20,34; 50,93</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>58,68; 81,85</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,98</t>
+          <t>35,79; 64,04</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 7,32</t>
+          <t>18,68; 58,3</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 9,05</t>
+          <t>4,43; 41,84</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,74</t>
+          <t>47,85; 73,89</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,21</t>
+          <t>30,93; 46,5</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 2,77</t>
+          <t>22,64; 46,35</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 3,3</t>
+          <t>18,39; 41,74</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 1,51</t>
+          <t>55,6; 74,12</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,59%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>23,83%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>38,84%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>35,23%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>30,78%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>34,69%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>41,54%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>42,66%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>31,33%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>28,15%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,87%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>39,0%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,43</t>
+          <t>27,22; 35,99</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>19,38; 28,66</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,59</t>
+          <t>33,49; 44,56</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>29,89; 41,15</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,89</t>
+          <t>25,12; 37,58</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>27,66; 41,32</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,92</t>
+          <t>34,78; 48,52</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>37,17; 48,13</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>27,72; 34,98</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>24,38; 32,36</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>35,89; 44,44</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,24</t>
+          <t>34,84; 42,56</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6903-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,71%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>19,09%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>59,22%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>27,55%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>42,48%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>22,17%</t>
+          <t>22,44%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,57; 49,49</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,14; 40,17</t>
+          <t>5,36; 41,23</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>38,68; 76,97</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,51; 48,78</t>
+          <t>11,78; 51,08</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>30,55; 55,51</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,19; 39,7</t>
+          <t>11,05; 40,24</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>40,15%</t>
+          <t>41,0%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>44,88%</t>
+          <t>44,73%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>42,58%</t>
+          <t>42,85%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>22,58; 59,18</t>
+          <t>23,17; 60,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>32,05; 57,58</t>
+          <t>31,94; 57,34</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,75; 53,77</t>
+          <t>31,64; 53,91</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>10,63%</t>
+          <t>10,43%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>27,28%</t>
+          <t>27,21%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>18,8%</t>
+          <t>18,5%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,89; 21,03</t>
+          <t>3,82; 20,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,23; 39,44</t>
+          <t>18,25; 39,46</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,56; 26,6</t>
+          <t>12,28; 26,24</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>28,35%</t>
+          <t>27,15%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>51,1%</t>
+          <t>50,83%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>52,12%</t>
+          <t>44,87%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>52,7%</t>
+          <t>37,01%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>38,2%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>52,05%</t>
+          <t>41,62%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>18,77; 39,04</t>
+          <t>14,02; 41,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,56; 71,26</t>
+          <t>30,27; 71,2</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>38,11; 64,95</t>
+          <t>26,23; 62,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>29,54; 68,33</t>
+          <t>11,04; 66,65</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>29,99; 46,87</t>
+          <t>23,52; 46,01</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>34,77; 64,39</t>
+          <t>16,92; 61,56</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>15,25%</t>
+          <t>15,12%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>27,0%</t>
+          <t>26,63%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>19,84%</t>
+          <t>19,63%</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,09; 32,64</t>
+          <t>4,05; 32,28</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,49; 50,07</t>
+          <t>12,29; 49,07</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,94; 34,92</t>
+          <t>10,82; 34,43</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25,34%</t>
+          <t>25,19%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>27,47%</t>
+          <t>27,84%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
@@ -1411,7 +1411,7 @@
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>26,49%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,51; 42,12</t>
+          <t>12,27; 41,95</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,47; 42,33</t>
+          <t>16,65; 42,78</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,11; 36,91</t>
+          <t>18,16; 37,02</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>21,54%</t>
+          <t>21,52%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>39,49%</t>
+          <t>39,33%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>30,64%</t>
+          <t>30,34%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,38; 32,35</t>
+          <t>12,42; 32,23</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,5; 49,88</t>
+          <t>30,32; 49,71</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,33; 38,33</t>
+          <t>23,09; 38,04</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>70,66%</t>
+          <t>70,61%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>60,13%</t>
+          <t>59,21%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>65,39%</t>
+          <t>65,02%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>58,68; 81,85</t>
+          <t>58,62; 81,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>47,85; 73,89</t>
+          <t>46,93; 72,75</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>55,6; 74,12</t>
+          <t>55,2; 73,61</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>35,23%</t>
+          <t>34,19%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>42,66%</t>
+          <t>39,09%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>39,0%</t>
+          <t>36,7%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>29,89; 41,15</t>
+          <t>28,98; 40,16</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>37,17; 48,13</t>
+          <t>28,42; 45,4</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>34,84; 42,56</t>
+          <t>30,3; 40,66</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P6903-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P6903-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>25,21; 57,21</t>
+          <t>24,81; 55,74</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>16,57; 49,49</t>
+          <t>16,99; 49,32</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>29,34; 56,78</t>
+          <t>28,15; 56,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,36; 41,23</t>
+          <t>4,76; 39,9</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>19,32; 59,38</t>
+          <t>22,35; 59,39</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>38,68; 76,97</t>
+          <t>39,21; 76,16</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>32,2; 65,58</t>
+          <t>33,95; 63,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>11,78; 51,08</t>
+          <t>11,88; 51,01</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>27,98; 52,26</t>
+          <t>28,18; 52,68</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,55; 55,51</t>
+          <t>30,73; 55,22</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>34,7; 55,54</t>
+          <t>35,6; 55,32</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>11,05; 40,24</t>
+          <t>11,15; 36,68</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>20,44; 43,85</t>
+          <t>19,7; 44,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>20,55; 44,99</t>
+          <t>19,85; 46,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>30,66; 52,55</t>
+          <t>30,03; 51,93</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>23,17; 60,25</t>
+          <t>24,03; 60,92</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>14,76; 47,21</t>
+          <t>14,8; 45,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>9,76; 41,12</t>
+          <t>9,68; 42,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>44,47; 76,19</t>
+          <t>44,21; 74,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>31,94; 57,34</t>
+          <t>32,62; 57,65</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>21,16; 40,11</t>
+          <t>21,5; 40,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>20,14; 38,94</t>
+          <t>20,03; 40,61</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>39,79; 58,41</t>
+          <t>39,48; 57,26</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>31,64; 53,91</t>
+          <t>32,6; 55,13</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>18,34; 52,31</t>
+          <t>18,77; 52,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,65; 33,67</t>
+          <t>3,63; 29,64</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,7; 43,73</t>
+          <t>8,03; 44,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,82; 20,61</t>
+          <t>3,73; 21,46</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>4,47; 32,9</t>
+          <t>4,49; 36,32</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>10,49; 52,98</t>
+          <t>10,2; 49,89</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0,0; 42,01</t>
+          <t>0,0; 42,61</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>18,25; 39,46</t>
+          <t>18,47; 39,53</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>16,01; 40,93</t>
+          <t>15,73; 39,27</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>10,89; 33,82</t>
+          <t>10,87; 34,0</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>8,09; 35,2</t>
+          <t>8,07; 33,16</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>12,28; 26,24</t>
+          <t>12,24; 26,32</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>10,7; 31,82</t>
+          <t>9,75; 32,44</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>14,02; 41,31</t>
+          <t>13,78; 43,21</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>31,88; 68,21</t>
+          <t>30,7; 66,97</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>30,27; 71,2</t>
+          <t>30,69; 69,36</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>4,16; 36,38</t>
+          <t>4,11; 33,7</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>26,23; 62,49</t>
+          <t>26,87; 64,67</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>32,17; 66,6</t>
+          <t>29,38; 67,04</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>11,04; 66,65</t>
+          <t>12,74; 67,45</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10,5; 29,17</t>
+          <t>10,3; 28,12</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>23,52; 46,01</t>
+          <t>22,93; 45,93</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>35,28; 60,81</t>
+          <t>37,16; 62,86</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>16,92; 61,56</t>
+          <t>19,1; 61,22</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>14,43; 52,15</t>
+          <t>14,87; 51,99</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 27,82</t>
+          <t>0,0; 31,11</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>26,24; 79,33</t>
+          <t>20,72; 76,72</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>4,05; 32,28</t>
+          <t>3,93; 32,26</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 71,99</t>
+          <t>0,0; 72,31</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,42; 68,91</t>
+          <t>8,22; 69,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>16,08; 85,47</t>
+          <t>15,96; 86,02</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,29; 49,07</t>
+          <t>11,31; 49,13</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16,39; 49,48</t>
+          <t>15,67; 50,2</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>6,83; 36,2</t>
+          <t>6,95; 36,57</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>28,13; 75,78</t>
+          <t>30,52; 75,06</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>10,82; 34,43</t>
+          <t>10,76; 33,84</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>26,75; 57,82</t>
+          <t>27,4; 59,28</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>7,17; 32,81</t>
+          <t>6,93; 32,35</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>22,26; 64,06</t>
+          <t>22,22; 64,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>12,27; 41,95</t>
+          <t>13,58; 41,31</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 37,38</t>
+          <t>0,0; 30,28</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>6,67; 58,11</t>
+          <t>7,64; 53,94</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>14,99; 88,54</t>
+          <t>15,09; 88,02</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>16,65; 42,78</t>
+          <t>15,56; 40,6</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>21,74; 47,24</t>
+          <t>21,76; 47,03</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>10,4; 32,67</t>
+          <t>11,58; 33,89</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>24,57; 60,52</t>
+          <t>26,25; 60,64</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>18,16; 37,02</t>
+          <t>17,67; 36,9</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,13; 38,98</t>
+          <t>19,14; 38,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>7,32; 28,0</t>
+          <t>7,37; 27,31</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>21,38; 43,0</t>
+          <t>21,28; 43,37</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>12,42; 32,23</t>
+          <t>12,42; 32,88</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>18,81; 44,43</t>
+          <t>18,17; 44,76</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>14,46; 38,72</t>
+          <t>14,58; 39,21</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>19,56; 45,01</t>
+          <t>20,3; 44,97</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>30,32; 49,71</t>
+          <t>29,76; 50,02</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>20,88; 37,23</t>
+          <t>21,67; 37,29</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>12,56; 28,86</t>
+          <t>12,98; 29,18</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>23,84; 40,14</t>
+          <t>23,75; 39,85</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>23,09; 38,04</t>
+          <t>23,96; 37,96</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>24,56; 42,62</t>
+          <t>24,26; 42,53</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>19,85; 47,2</t>
+          <t>19,24; 47,96</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20,34; 50,93</t>
+          <t>21,86; 52,01</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>58,62; 81,72</t>
+          <t>57,27; 82,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>35,79; 64,04</t>
+          <t>34,72; 63,5</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>18,68; 58,3</t>
+          <t>17,05; 54,85</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>4,43; 41,84</t>
+          <t>4,32; 40,11</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>46,93; 72,75</t>
+          <t>46,46; 73,77</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>30,93; 46,5</t>
+          <t>30,44; 46,46</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>22,64; 46,35</t>
+          <t>23,18; 46,01</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>18,39; 41,74</t>
+          <t>17,92; 40,94</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>55,2; 73,61</t>
+          <t>55,33; 73,54</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1845,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>27,22; 35,99</t>
+          <t>27,29; 36,11</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>19,38; 28,66</t>
+          <t>19,21; 28,57</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>33,49; 44,56</t>
+          <t>33,68; 44,25</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>28,98; 40,16</t>
+          <t>28,69; 40,75</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>25,12; 37,58</t>
+          <t>25,09; 37,85</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>27,66; 41,32</t>
+          <t>28,46; 41,47</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>34,78; 48,52</t>
+          <t>35,45; 48,95</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>28,42; 45,4</t>
+          <t>28,29; 45,54</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>27,72; 34,98</t>
+          <t>27,76; 35,01</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>24,38; 32,36</t>
+          <t>24,5; 32,35</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>35,89; 44,44</t>
+          <t>35,71; 44,29</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>30,3; 40,66</t>
+          <t>31,06; 40,98</t>
         </is>
       </c>
     </row>
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que su trabajo le afecta de manera que se siente agotado a todas horas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>17173</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>11732</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>24925</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>4595</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>11116</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>17852</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>19994</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>4340</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>28289</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>29584</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>44919</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>8936</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>10629; 23879</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>6710; 19479</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>16488; 33094</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>1146; 9604</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>6398; 16996</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>11820; 22960</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>13878; 26038</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>1872; 8036</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20139; 37650</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>21399; 38456</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>35408; 55023</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4442; 14607</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>29</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>21990</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>18231</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>34425</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>18973</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9738</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>8078</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>25807</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>20327</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>31728</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26309</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>60232</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>39300</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>14261; 31884</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11233; 26088</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>24862; 42994</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>11120; 28194</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>4839; 14740</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>3322; 14508</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>18876; 31833</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>14823; 26200</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>22594; 42475</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18210; 36918</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>49545; 71857</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>29905; 50566</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>12611</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>3703</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>4660</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>5160</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>2956</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>4989</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>1803</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>12496</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>15567</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>8691</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>6463</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>17657</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>6871; 19110</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>918; 7500</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>1707; 9388</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1846; 10623</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>975; 7889</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1829; 8948</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>0; 5326</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8481; 18155</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>9174; 22912</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>4698; 14700</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>2722; 11192</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>11684; 25116</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>11555</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>12180</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>16094</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>20511</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>3065</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>13253</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>14586</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>29847</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>14620</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>25433</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>30681</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>50358</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>5687; 18920</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>6183; 19383</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>9968; 21743</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>12384; 27989</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>933; 7652</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>7937; 19101</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>8794; 20069</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10276; 54403</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>8346; 22789</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>17062; 34167</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>23188; 39226</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>23116; 74078</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>7269</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>923</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>7824</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>2583</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>3990</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>3023</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>2926</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>9288</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>4913</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>10847</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5509</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>3414; 11933</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>0; 4707</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>3081; 11409</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>671; 5510</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>0; 5040</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>959; 8097</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>921; 4964</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>1243; 5397</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>4688; 15023</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>1862; 9795</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6299; 15493</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>3019; 9497</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17677</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>7661</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>9382</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>7965</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>4002</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>3561</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>8412</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>18712</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>11662</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>12943</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>16377</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11454; 24786</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>3005; 14035</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>4986; 14375</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>4294; 13060</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>0; 4268</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>1160; 8190</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>1121; 6537</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>4701; 12269</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>12162; 26293</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>6785; 19845</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>7838; 18108</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>10925; 22816</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>24884</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>8214</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>24817</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>15320</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>13261</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>11917</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>17524</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>27472</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>38145</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>20131</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>42341</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>42792</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>16928; 33852</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>4011; 14866</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>16673; 33974</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>8847; 23413</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>7908; 19487</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>6761; 18185</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>11303; 25038</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>20785; 34936</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>28607; 49213</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>13084; 29417</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>31829; 53406</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>33797; 53540</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>36059</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>14632</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>13822</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>40077</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>24562</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>10393</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3547</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>32393</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>60620</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>25025</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>17369</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>72470</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>26420; 46319</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>8681; 21638</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>8585; 20425</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>32505; 46735</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>17288; 31616</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>5034; 16193</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>924; 8583</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>25416; 40361</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>48311; 73730</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>17305; 34340</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>10873; 24841</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>61674; 81967</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>149217</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>77275</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>135950</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>115185</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>67753</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>74473</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>89846</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>138214</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>216970</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>151748</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>225796</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>253399</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>128890; 170546</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>62308; 92651</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>117870; 154859</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>96638; 137275</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>55237; 83314</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>61107; 89027</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>76669; 105873</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>99999; 160985</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>192224; 242444</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>132031; 174382</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>202214; 250839</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>214441; 282906</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>